--- a/xlsx/美国民间音乐_intext.xlsx
+++ b/xlsx/美国民间音乐_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%8D%89%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>藍草音樂</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国民间音乐</t>
+    <t>蓝草音乐</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国民间音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%A1%E6%9D%91%E9%9F%B3%E4%B9%90</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
